--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail1 Features.xlsx
@@ -5272,7 +5272,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315820104971042</v>
+        <v>1.323229652105384</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.22918910695852</v>
@@ -5361,7 +5361,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.327361817235727</v>
+        <v>1.334280612879563</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.156310339325837</v>
@@ -5450,7 +5450,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.345708679970608</v>
+        <v>1.352022061237124</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.316188453055856</v>
@@ -5539,7 +5539,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363401035381971</v>
+        <v>1.372549623358745</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.250625225268999</v>
@@ -5628,7 +5628,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.375598544175691</v>
+        <v>1.387405538193624</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.236964285058989</v>
@@ -5717,7 +5717,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.376843984719404</v>
+        <v>1.384909133547305</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.217220507251717</v>
@@ -5806,7 +5806,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393155530077495</v>
+        <v>1.400230170368586</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.078761229397965</v>
@@ -5895,7 +5895,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.379302441168601</v>
+        <v>1.386956370994801</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.140251938775321</v>
@@ -5984,7 +5984,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.367281387408398</v>
+        <v>1.377708627108105</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.148991604133093</v>
@@ -6073,7 +6073,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.364135439977475</v>
+        <v>1.371324239999959</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.071884688616608</v>
@@ -6162,7 +6162,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365889760950568</v>
+        <v>1.374721455014151</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.109121580393826</v>
@@ -6251,7 +6251,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.366521866980607</v>
+        <v>1.372692655448091</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.138176446111297</v>
@@ -6340,7 +6340,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365873838057783</v>
+        <v>1.372370382686079</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.97836327198306</v>
@@ -6429,7 +6429,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.368878423131637</v>
+        <v>1.37816860242626</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.324114580509027</v>
@@ -6518,7 +6518,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372167172123574</v>
+        <v>1.38430298925937</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.150419566828966</v>
@@ -6607,7 +6607,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.397736865519983</v>
+        <v>1.41618563665894</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.331068062807365</v>
@@ -6696,7 +6696,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.400340447254033</v>
+        <v>1.420228665614876</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.600682815859664</v>
@@ -6785,7 +6785,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.400279346553266</v>
+        <v>1.421856337716547</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.511504309967126</v>
@@ -6874,7 +6874,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.397197281542417</v>
+        <v>1.420163806378941</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.520269677938046</v>
@@ -6963,7 +6963,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.389319810418918</v>
+        <v>1.410849756782411</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.460427354109766</v>
@@ -7052,7 +7052,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.399998518660786</v>
+        <v>1.422139795491494</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.327289323223244</v>
@@ -7141,7 +7141,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.39211258802295</v>
+        <v>1.415190953371411</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.226934146027702</v>
@@ -7230,7 +7230,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.367558778624611</v>
+        <v>1.392107296180829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.493774620728485</v>
@@ -7319,7 +7319,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.348430363519905</v>
+        <v>1.371691914197679</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.707614460965148</v>
@@ -7408,7 +7408,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.334978121877703</v>
+        <v>1.359786193270362</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.615081249969361</v>
@@ -7497,7 +7497,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.346510358199693</v>
+        <v>1.371210619295564</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.550532119731421</v>
@@ -7586,7 +7586,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.351447937624718</v>
+        <v>1.373769148645052</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.521687297807174</v>
@@ -7675,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.342909549453173</v>
+        <v>1.368701061542257</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380285717396202</v>
@@ -7764,7 +7764,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.351744838380038</v>
+        <v>1.378532364112285</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.491618613269019</v>
@@ -7853,7 +7853,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.358545368945544</v>
+        <v>1.38195231450009</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.289912295841938</v>
@@ -7942,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.360343500560975</v>
+        <v>1.384097934431937</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.516012490373812</v>
@@ -8031,7 +8031,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.349594180584283</v>
+        <v>1.371313309199512</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.48734598312197</v>
@@ -8120,7 +8120,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.357596659294508</v>
+        <v>1.379823513393951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.508996840652855</v>
@@ -8209,7 +8209,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.374907718733699</v>
+        <v>1.395265716481268</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.475641432057309</v>
@@ -8298,7 +8298,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.370907204571966</v>
+        <v>1.394259382802197</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.42990996827687</v>
@@ -8387,7 +8387,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.365289258750946</v>
+        <v>1.385183676566063</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.608492190318455</v>
@@ -8476,7 +8476,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.357072761864561</v>
+        <v>1.380559989868481</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.484085779833164</v>
@@ -8565,7 +8565,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.374620836378135</v>
+        <v>1.396218804584193</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.303807012922771</v>
@@ -8654,7 +8654,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.38639504594357</v>
+        <v>1.404723554748323</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.474065800128557</v>
@@ -8743,7 +8743,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.378621132280784</v>
+        <v>1.39551531586815</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.476300678562436</v>
@@ -8832,7 +8832,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.362354939793221</v>
+        <v>1.380084901516377</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.362701794991157</v>
@@ -8921,7 +8921,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383428634582114</v>
+        <v>1.401494593486523</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.46196397246602</v>
@@ -9207,7 +9207,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.463132685205413</v>
+        <v>1.462862491663466</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.991609395283857</v>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.463174550392307</v>
+        <v>1.462710622627352</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.987724506308282</v>
@@ -9385,7 +9385,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461564168974337</v>
+        <v>1.458714892117771</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.945943416163848</v>
@@ -9474,7 +9474,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.473968450281016</v>
+        <v>1.482721783141755</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.962475108557762</v>
@@ -9563,7 +9563,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.465015862532342</v>
+        <v>1.477533157846952</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.891636872876505</v>
@@ -9652,7 +9652,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.466984086650985</v>
+        <v>1.482640559731264</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.946765963462326</v>
@@ -9741,7 +9741,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.463421831116137</v>
+        <v>1.478206252733568</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.935497865612322</v>
@@ -9830,7 +9830,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.46096454835732</v>
+        <v>1.476215858965954</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.941092145117587</v>
@@ -9919,7 +9919,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.458533370837429</v>
+        <v>1.471823591884313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.917876724321265</v>
@@ -10008,7 +10008,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.461623427917533</v>
+        <v>1.473085945039226</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.94573350083567</v>
@@ -10097,7 +10097,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.462175474171683</v>
+        <v>1.472386970626968</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.95184701725192</v>
@@ -10186,7 +10186,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.470542222527642</v>
+        <v>1.477681628883065</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.880924127918363</v>
@@ -10275,7 +10275,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542588483873996</v>
+        <v>1.54347192312063</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.202711997172676</v>
@@ -10364,7 +10364,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.496653142695458</v>
+        <v>1.485746845130133</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.988532131031665</v>
@@ -10453,7 +10453,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.499480190632062</v>
+        <v>1.478549170199082</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.063122333436549</v>
@@ -10542,7 +10542,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523549761599291</v>
+        <v>1.51115276802672</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.691434094304982</v>
@@ -10631,7 +10631,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528710642513586</v>
+        <v>1.521518453328876</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.704060110642974</v>
@@ -10720,7 +10720,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.528744885818021</v>
+        <v>1.528451064136555</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.75517949724113</v>
@@ -10809,7 +10809,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533274232361088</v>
+        <v>1.532326878924873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.646501468383153</v>
@@ -10898,7 +10898,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543372860103146</v>
+        <v>1.538766548077157</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.559260612584524</v>
@@ -10987,7 +10987,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54188321836543</v>
+        <v>1.542949022896342</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.552845667790101</v>
@@ -11076,7 +11076,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550824722471214</v>
+        <v>1.551535100313485</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.560349113930472</v>
@@ -11165,7 +11165,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548947797141161</v>
+        <v>1.542328821122598</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.751552941232573</v>
@@ -11254,7 +11254,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55430109211975</v>
+        <v>1.547767803386544</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.571100842481606</v>
@@ -11343,7 +11343,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.543928897675204</v>
+        <v>1.535324957568537</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.661808155071694</v>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538668372676899</v>
+        <v>1.531647214845778</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.660083293087885</v>
@@ -11521,7 +11521,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547542914599939</v>
+        <v>1.539056946097252</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.689223090198727</v>
@@ -11610,7 +11610,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.544173691561584</v>
+        <v>1.534162250234554</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.537182321160365</v>
@@ -11699,7 +11699,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566797721841236</v>
+        <v>1.554507881625762</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.510413384834999</v>
@@ -11788,7 +11788,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595750865949017</v>
+        <v>1.578733236719708</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.887171734791969</v>
@@ -11877,7 +11877,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592233231451823</v>
+        <v>1.578084951770995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.000988104088631</v>
@@ -11966,7 +11966,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590481416634329</v>
+        <v>1.577919917656319</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94710690004219</v>
@@ -12055,7 +12055,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595626557267113</v>
+        <v>1.579130021154233</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.760910157363337</v>
@@ -12144,7 +12144,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603076084316134</v>
+        <v>1.583329095889355</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.091875450715817</v>
@@ -12233,7 +12233,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587435255685311</v>
+        <v>1.572875842883102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.983203373154793</v>
@@ -12322,7 +12322,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.591279648476474</v>
+        <v>1.574203076355242</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.999905258390572</v>
@@ -12411,7 +12411,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.581527248900092</v>
+        <v>1.568599093676393</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.947507868761086</v>
@@ -12500,7 +12500,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.576125108136871</v>
+        <v>1.568425557012836</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.034075215127802</v>
@@ -12589,7 +12589,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532567834169558</v>
+        <v>1.51372313305647</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.093000280202622</v>
@@ -12678,7 +12678,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.530570467607072</v>
+        <v>1.517107278262556</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.056775110008061</v>
@@ -12767,7 +12767,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541901735346811</v>
+        <v>1.525675010349176</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.115248050796617</v>
@@ -12856,7 +12856,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541574385953256</v>
+        <v>1.523992420179035</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.064560764404578</v>
@@ -13142,7 +13142,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365857929945234</v>
+        <v>1.347380672689281</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.100227640800273</v>
@@ -13231,7 +13231,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.373765526482001</v>
+        <v>1.352586234904937</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.093645289148262</v>
@@ -13320,7 +13320,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.366631888547637</v>
+        <v>1.344319949488216</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.059695512151927</v>
@@ -13409,7 +13409,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.38580005137019</v>
+        <v>1.367249734938638</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.013406050338496</v>
@@ -13498,7 +13498,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.395783297618539</v>
+        <v>1.375784077010242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.08799106363156</v>
@@ -13587,7 +13587,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398324031734179</v>
+        <v>1.377598524881607</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.075451258175976</v>
@@ -13676,7 +13676,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39682406272138</v>
+        <v>1.375902745004204</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.060776855919515</v>
@@ -13765,7 +13765,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.392064828840017</v>
+        <v>1.371289422484484</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.064922218086324</v>
@@ -13854,7 +13854,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.389511209606175</v>
+        <v>1.369023232320117</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.043915292801436</v>
@@ -13943,7 +13943,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.387090737148034</v>
+        <v>1.365443263644656</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.063501743849908</v>
@@ -14032,7 +14032,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.387296469485997</v>
+        <v>1.365388389981541</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.074263353520681</v>
@@ -14121,7 +14121,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.389723610993671</v>
+        <v>1.365695408402723</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.009246576760892</v>
@@ -14210,7 +14210,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.467980807703437</v>
+        <v>1.443858326003569</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.878760251597104</v>
@@ -14299,7 +14299,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.487810991321178</v>
+        <v>1.486783278090281</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.032730468327732</v>
@@ -14388,7 +14388,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.53331656397212</v>
+        <v>1.529211939632117</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.787880265430482</v>
@@ -14477,7 +14477,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573731422897555</v>
+        <v>1.569095433023794</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.991890753878154</v>
@@ -14566,7 +14566,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.58273360267167</v>
+        <v>1.580768330174983</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.942819778765999</v>
@@ -14655,7 +14655,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656285995372153</v>
+        <v>1.652870719777097</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.330776692143545</v>
@@ -14744,7 +14744,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651383569774773</v>
+        <v>1.650523421701663</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.355087664722776</v>
@@ -14833,7 +14833,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.649750275924295</v>
+        <v>1.645181450985125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.336193479944894</v>
@@ -14922,7 +14922,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.65522939624972</v>
+        <v>1.654852670128546</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.357749003313794</v>
@@ -15011,7 +15011,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.650900825968925</v>
+        <v>1.652283671358487</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.855342764997093</v>
@@ -15100,7 +15100,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.646769179277405</v>
+        <v>1.648747432729064</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.180417577439692</v>
@@ -15189,7 +15189,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630746540899948</v>
+        <v>1.632418229949251</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.89223736532842</v>
@@ -15278,7 +15278,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630473078786832</v>
+        <v>1.637454115609495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.337172359606748</v>
@@ -15367,7 +15367,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.638366872964378</v>
+        <v>1.645210276030945</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.059512662444537</v>
@@ -15456,7 +15456,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623078330379318</v>
+        <v>1.633933750895723</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.809326350644424</v>
@@ -15545,7 +15545,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56451339059839</v>
+        <v>1.564819955448428</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.255813638090228</v>
@@ -15634,7 +15634,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553451026685111</v>
+        <v>1.554504508074673</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.24898732103694</v>
@@ -15723,7 +15723,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545471669060787</v>
+        <v>1.549075787026365</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.169722074969305</v>
@@ -15812,7 +15812,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.547986931413408</v>
+        <v>1.555291726536819</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.144727620031999</v>
@@ -15901,7 +15901,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.537414371627178</v>
+        <v>1.545231933014863</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.159577642372013</v>
@@ -15990,7 +15990,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.531682848581531</v>
+        <v>1.542082634768457</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.148270699631389</v>
@@ -16079,7 +16079,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541468546411101</v>
+        <v>1.550965754825061</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.241297050832956</v>
@@ -16168,7 +16168,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.537421773073773</v>
+        <v>1.549950304937536</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.22145139915992</v>
@@ -16257,7 +16257,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531593892596874</v>
+        <v>1.541429037704052</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.171225045712004</v>
@@ -16346,7 +16346,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526830240551846</v>
+        <v>1.537620922012266</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.128163614490854</v>
@@ -16435,7 +16435,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.4964554680542</v>
+        <v>1.508595116542787</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.14611206224652</v>
@@ -16524,7 +16524,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.350807519340696</v>
+        <v>1.305780370919726</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.401214753680495</v>
@@ -16613,7 +16613,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.262658474328243</v>
+        <v>1.247171012536104</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.418311657657341</v>
@@ -16702,7 +16702,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.258294248111006</v>
+        <v>1.243787363260122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.417087642990183</v>
@@ -16791,7 +16791,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.263921892136058</v>
+        <v>1.249194115542486</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.419013726237542</v>
@@ -17077,7 +17077,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.587667319723147</v>
+        <v>1.61501199569274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.384940803346618</v>
@@ -17166,7 +17166,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.59526266885805</v>
+        <v>1.622839833595928</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.356673376360837</v>
@@ -17255,7 +17255,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.608366032216235</v>
+        <v>1.633564511054768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.432394154281182</v>
@@ -17344,7 +17344,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.629386823067887</v>
+        <v>1.652394192263775</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.377620008792327</v>
@@ -17433,7 +17433,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639676416588498</v>
+        <v>1.664479575173334</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.433590959756268</v>
@@ -17522,7 +17522,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.631484031914842</v>
+        <v>1.656062667138988</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.379543478362217</v>
@@ -17611,7 +17611,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.634765897860381</v>
+        <v>1.6609877161748</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.30466069726722</v>
@@ -17700,7 +17700,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625159125471075</v>
+        <v>1.652258156983897</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.325578320122557</v>
@@ -17789,7 +17789,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.620953182679647</v>
+        <v>1.648114108385833</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.319876850447141</v>
@@ -17878,7 +17878,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.613395851044179</v>
+        <v>1.641161529853301</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.343107564423157</v>
@@ -17967,7 +17967,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618924826479667</v>
+        <v>1.649401732531295</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.333147207689989</v>
@@ -18056,7 +18056,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620687572522995</v>
+        <v>1.649210077777481</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.28483870375628</v>
@@ -18145,7 +18145,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.643455501396072</v>
+        <v>1.663906972820838</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.346861779635493</v>
@@ -18234,7 +18234,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62323752962021</v>
+        <v>1.631808438615241</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.190857198900961</v>
@@ -18323,7 +18323,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.599609800166221</v>
+        <v>1.593934279929439</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.538791512673235</v>
@@ -18412,7 +18412,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.616581905721824</v>
+        <v>1.614627614675542</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.723950882821511</v>
@@ -18501,7 +18501,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.623920523788885</v>
+        <v>1.622194326315368</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.872310798526735</v>
@@ -18590,7 +18590,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622950392077764</v>
+        <v>1.627313622659497</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.929970448320171</v>
@@ -18679,7 +18679,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615026787716147</v>
+        <v>1.617847299694199</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.95629525217519</v>
@@ -18768,7 +18768,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613868394354849</v>
+        <v>1.61398377721572</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.699763454547701</v>
@@ -18857,7 +18857,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627553177638757</v>
+        <v>1.631939203838758</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.881561006534202</v>
@@ -18946,7 +18946,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631507897991824</v>
+        <v>1.638635531761761</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.66565684994067</v>
@@ -19035,7 +19035,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.618950436237186</v>
+        <v>1.624213894444919</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.934817415315043</v>
@@ -19124,7 +19124,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.597397776835968</v>
+        <v>1.604640512809899</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.048800842993725</v>
@@ -19213,7 +19213,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595677292453126</v>
+        <v>1.602233302276851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.943307560429874</v>
@@ -19302,7 +19302,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59863063266009</v>
+        <v>1.600934372586924</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.901776128110046</v>
@@ -19391,7 +19391,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589464394045257</v>
+        <v>1.595578932820095</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.207363356116173</v>
@@ -19480,7 +19480,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.595224959090517</v>
+        <v>1.59938564903102</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.89200690765257</v>
@@ -19569,7 +19569,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.600127730653797</v>
+        <v>1.600815960318996</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.20069589919428</v>
@@ -19658,7 +19658,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.599957524972442</v>
+        <v>1.601820993242702</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.975178131272401</v>
@@ -19747,7 +19747,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604120793623814</v>
+        <v>1.604077880187049</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.029342913948549</v>
@@ -19836,7 +19836,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588849140269377</v>
+        <v>1.590820464138746</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.34637924777745</v>
@@ -19925,7 +19925,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590057522928563</v>
+        <v>1.589625719167483</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.057859009199164</v>
@@ -20014,7 +20014,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61014890218067</v>
+        <v>1.606495046106324</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.894650246639508</v>
@@ -20103,7 +20103,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606636537705577</v>
+        <v>1.601945879603075</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.965982116983924</v>
@@ -20192,7 +20192,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600036134821575</v>
+        <v>1.594163119372823</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.272589042392933</v>
@@ -20281,7 +20281,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588524886331279</v>
+        <v>1.584884938320581</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.927511087121839</v>
@@ -20370,7 +20370,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589180818462503</v>
+        <v>1.589291954841925</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.04485672632904</v>
@@ -20459,7 +20459,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589864252114661</v>
+        <v>1.584914041011614</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.399998046658592</v>
@@ -20548,7 +20548,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.57198594926592</v>
+        <v>1.573095248179853</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.480961082326487</v>
@@ -20637,7 +20637,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.562975088431783</v>
+        <v>1.561319215300956</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.301535093088849</v>
@@ -20726,7 +20726,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577112895400913</v>
+        <v>1.575231203226226</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.554055083747421</v>
@@ -21012,7 +21012,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411932766443304</v>
+        <v>1.435758929750459</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.066871556243816</v>
@@ -21101,7 +21101,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411973429434008</v>
+        <v>1.432898148282423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.046300902121981</v>
@@ -21190,7 +21190,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.407734721198064</v>
+        <v>1.429334813351969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.013134318859068</v>
@@ -21279,7 +21279,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.432201540613426</v>
+        <v>1.448851075420294</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.987108691853238</v>
@@ -21368,7 +21368,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.425508356164</v>
+        <v>1.445398073085813</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.044847996808096</v>
@@ -21457,7 +21457,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.429551957593867</v>
+        <v>1.447811348717265</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.969348583805977</v>
@@ -21546,7 +21546,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.42981300584053</v>
+        <v>1.445754916541804</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.002032900603636</v>
@@ -21635,7 +21635,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.434747326796701</v>
+        <v>1.449272178259604</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.004381475917926</v>
@@ -21724,7 +21724,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.427728539539706</v>
+        <v>1.443496300938876</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.03657475329982</v>
@@ -21813,7 +21813,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.432772332123135</v>
+        <v>1.448234045039949</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.01881566508908</v>
@@ -21902,7 +21902,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433447972773144</v>
+        <v>1.450487872048505</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.056341505601766</v>
@@ -21991,7 +21991,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.440263245395142</v>
+        <v>1.454419015195062</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.964540340844003</v>
@@ -22080,7 +22080,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.484967269072341</v>
+        <v>1.500023494567169</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.878721199207444</v>
@@ -22169,7 +22169,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.496685935811137</v>
+        <v>1.506906256367083</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.813773992345026</v>
@@ -22258,7 +22258,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493567258704906</v>
+        <v>1.479543055323049</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.94986724173413</v>
@@ -22347,7 +22347,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.533473930754032</v>
+        <v>1.523086829487962</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.439254778558976</v>
@@ -22436,7 +22436,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549713914569145</v>
+        <v>1.543056449604454</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.68878299971246</v>
@@ -22525,7 +22525,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556026822850052</v>
+        <v>1.550410573671585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.724678543736648</v>
@@ -22614,7 +22614,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55017775430984</v>
+        <v>1.545142399093062</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.599565394172703</v>
@@ -22703,7 +22703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561745846943984</v>
+        <v>1.550044496460763</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.905902143076631</v>
@@ -22792,7 +22792,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561722041881837</v>
+        <v>1.550302241014352</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.500842125019723</v>
@@ -22881,7 +22881,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569398455308491</v>
+        <v>1.557709213576262</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.680108934719073</v>
@@ -22970,7 +22970,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559081852069898</v>
+        <v>1.547207863344886</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.662406941718295</v>
@@ -23059,7 +23059,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578401183788931</v>
+        <v>1.556569996769229</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.652817223479325</v>
@@ -23148,7 +23148,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.585115232801851</v>
+        <v>1.556927714406611</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.548899913400761</v>
@@ -23237,7 +23237,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577072125829067</v>
+        <v>1.549297173262304</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.77637354846209</v>
@@ -23326,7 +23326,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582078990305363</v>
+        <v>1.557397106053801</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.570557114208154</v>
@@ -23415,7 +23415,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.568795823971122</v>
+        <v>1.548631431026737</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.573173305820025</v>
@@ -23504,7 +23504,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.593470787060347</v>
+        <v>1.567516820056278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.417022500881006</v>
@@ -23593,7 +23593,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.593028409320002</v>
+        <v>1.56693921307124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.03501622750326</v>
@@ -23682,7 +23682,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595783744907478</v>
+        <v>1.567022444071872</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.781500427218309</v>
@@ -23771,7 +23771,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.58531910197607</v>
+        <v>1.557490682605947</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.811035540181256</v>
@@ -23860,7 +23860,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.570495246959434</v>
+        <v>1.546157833409323</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.880282785087612</v>
@@ -23949,7 +23949,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.568724758498153</v>
+        <v>1.546371678332517</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.015144574403652</v>
@@ -24038,7 +24038,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.553446700703558</v>
+        <v>1.537650144027753</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.872182069112581</v>
@@ -24127,7 +24127,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.546955301934464</v>
+        <v>1.53109824280888</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.843225139221298</v>
@@ -24216,7 +24216,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537998164943872</v>
+        <v>1.529619449649728</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.92472327615388</v>
@@ -24305,7 +24305,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.529137960182128</v>
+        <v>1.523228464248175</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.720240320702135</v>
@@ -24394,7 +24394,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48933385909061</v>
+        <v>1.481011027567834</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.145354068037794</v>
@@ -24483,7 +24483,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.465856199025445</v>
+        <v>1.46668505149975</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.118600959041954</v>
@@ -24572,7 +24572,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468195599208307</v>
+        <v>1.466457869363095</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.128706028517135</v>
@@ -24661,7 +24661,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.476742469375701</v>
+        <v>1.474223768754541</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.08267454328466</v>
@@ -24947,7 +24947,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.430309235286481</v>
+        <v>1.443293184835158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.576653169321374</v>
@@ -25036,7 +25036,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.453269507512243</v>
+        <v>1.464979071007325</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.411203188197594</v>
@@ -25125,7 +25125,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482579402871764</v>
+        <v>1.493683284859914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.669015760087431</v>
@@ -25214,7 +25214,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515751806254037</v>
+        <v>1.528590904184479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.495440136260037</v>
@@ -25303,7 +25303,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530791177155258</v>
+        <v>1.545145338444277</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.689555061274327</v>
@@ -25392,7 +25392,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.523578842192772</v>
+        <v>1.533067047708948</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.547628558785436</v>
@@ -25481,7 +25481,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.538687082744464</v>
+        <v>1.551903525237387</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.357784226453802</v>
@@ -25570,7 +25570,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.51330823463446</v>
+        <v>1.526961477597523</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.486131315758453</v>
@@ -25659,7 +25659,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.495471413358876</v>
+        <v>1.505661393775505</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.46033684093002</v>
@@ -25748,7 +25748,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.481560306359707</v>
+        <v>1.49146249850062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.2949567740785</v>
@@ -25837,7 +25837,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481097991856922</v>
+        <v>1.490907027099305</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.436950208376979</v>
@@ -25926,7 +25926,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.486491760730549</v>
+        <v>1.494989804366376</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.466268176262163</v>
@@ -26015,7 +26015,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.485141716104829</v>
+        <v>1.493301031368769</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.371482420449826</v>
@@ -26104,7 +26104,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.495633201872124</v>
+        <v>1.506862353023733</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.776491378559502</v>
@@ -26193,7 +26193,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.503483683179952</v>
+        <v>1.517425390555496</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.793253583208205</v>
@@ -26282,7 +26282,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.522127744225306</v>
+        <v>1.53931683439626</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.465873901884604</v>
@@ -26371,7 +26371,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526511918713471</v>
+        <v>1.544735078140818</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.664086848126402</v>
@@ -26460,7 +26460,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.528442617431826</v>
+        <v>1.545769427679449</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.628562541407799</v>
@@ -26549,7 +26549,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.526285709153504</v>
+        <v>1.543561155393785</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.619345410222524</v>
@@ -26638,7 +26638,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.517192557369485</v>
+        <v>1.532639586253402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.485832580126455</v>
@@ -26727,7 +26727,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.531509915648026</v>
+        <v>1.554818116641088</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.430668546585746</v>
@@ -26816,7 +26816,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525186356012741</v>
+        <v>1.548098063867068</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.353126100320214</v>
@@ -26905,7 +26905,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506123496610889</v>
+        <v>1.53240519979067</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.638947372749344</v>
@@ -26994,7 +26994,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.48456686667811</v>
+        <v>1.511581809105929</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.876362599426583</v>
@@ -27083,7 +27083,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.475924931590056</v>
+        <v>1.506605751183266</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.619513997914626</v>
@@ -27172,7 +27172,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.486484644152497</v>
+        <v>1.520357904186267</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.636482204654832</v>
@@ -27261,7 +27261,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.483705293713481</v>
+        <v>1.512549321651087</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.634602237092286</v>
@@ -27350,7 +27350,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.470900137891477</v>
+        <v>1.501920927523283</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.578320611742756</v>
@@ -27439,7 +27439,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468593912027236</v>
+        <v>1.495764631637498</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.773410603867882</v>
@@ -27528,7 +27528,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.47057826266272</v>
+        <v>1.497592052047199</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.442488176640542</v>
@@ -27617,7 +27617,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.476069462030528</v>
+        <v>1.5069069746718</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.630720131785665</v>
@@ -27706,7 +27706,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.458724055739324</v>
+        <v>1.489840542090062</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.660261585327286</v>
@@ -27795,7 +27795,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.462093133133086</v>
+        <v>1.495306731894641</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.61834698316291</v>
@@ -27884,7 +27884,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.48004953566675</v>
+        <v>1.514936979923638</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.715687806667094</v>
@@ -27973,7 +27973,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.478582828644131</v>
+        <v>1.516105861033656</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.638307534439157</v>
@@ -28062,7 +28062,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473824378260828</v>
+        <v>1.505379259127265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.735938705136496</v>
@@ -28151,7 +28151,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.462527462999478</v>
+        <v>1.497697504877106</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.535322483148365</v>
@@ -28240,7 +28240,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.476956070433812</v>
+        <v>1.507598927663533</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.473357238645226</v>
@@ -28329,7 +28329,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.494887616118288</v>
+        <v>1.524088480863387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.87090499952774</v>
@@ -28418,7 +28418,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.493025948607609</v>
+        <v>1.521815306645555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.836830827264899</v>
@@ -28507,7 +28507,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.475553686947369</v>
+        <v>1.501288088245869</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.669006087989206</v>
@@ -28596,7 +28596,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.49988688813759</v>
+        <v>1.526162963038766</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.628933602783131</v>
